--- a/dbs11/tpcc/DBx1000-Cicada-TPCC.xlsx
+++ b/dbs11/tpcc/DBx1000-Cicada-TPCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/マイドライブ/nedo/transaction/Cicada-DBx1000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5FDE1-DE83-7E45-BB07-945BC20BD925}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A17EC2-43C6-6047-AC13-1DDABC003070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{620770E6-8DB7-1848-ADEA-C16BCBB3EB2F}"/>
   </bookViews>
@@ -7833,7 +7833,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>  - 'without insert' sheet: TPCC_INSERT_ROWS and TPCC_INSERT_INDEX are true</a:t>
+            <a:t>  - 'without insert' sheet: TPCC_INSERT_ROWS and TPCC_INSERT_INDEX are false (same as the original)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7842,7 +7842,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>  - 'with insert' sheet: TPCC_INSERT_ROWS and TPCC_INSERT_INDEX are false (same as the original)</a:t>
+            <a:t>  - 'with insert' sheet: TPCC_INSERT_ROWS and TPCC_INSERT_INDEX are true</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8561,7 +8561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9268C38-2CE7-8042-831F-1C78B83D6351}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>

--- a/dbs11/tpcc/DBx1000-Cicada-TPCC.xlsx
+++ b/dbs11/tpcc/DBx1000-Cicada-TPCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/マイドライブ/nedo/transaction/Cicada-DBx1000/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A17EC2-43C6-6047-AC13-1DDABC003070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395FDA62-6CB7-7F46-88B8-5DFAEC03FE84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{620770E6-8DB7-1848-ADEA-C16BCBB3EB2F}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
   <si>
     <t>Threads</t>
     <phoneticPr fontId="2"/>
@@ -1057,6 +1057,563 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>96 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NP(without insert)'!$B$24:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NP(without insert)'!$C$24:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.8383999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.207292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0539320000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4589809999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.68553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.695932</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5227560000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.530518000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.241985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.379773</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.258002000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37F6-2B43-AB3A-C4CA6792B5A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1185990432"/>
+        <c:axId val="1125668528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1185990432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Warehouse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125668528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1125668528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Throughput (Mtps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185990432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14787613839669272"/>
+          <c:y val="0.19097815002424059"/>
+          <c:w val="0.21478081125610257"/>
+          <c:h val="7.0334854639985275E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TPC-C-NP (Silo' in Cicada-DBx1000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11565544358303091"/>
+          <c:y val="0.12529079285881345"/>
+          <c:w val="0.85481689628334345"/>
+          <c:h val="0.72403972090122393"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>1 warehouse</c:v>
           </c:tx>
           <c:spPr>
@@ -1422,7 +1979,7 @@
                   <c:v>10.542092999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.292484</c:v>
+                  <c:v>12.290744999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,7 +2335,564 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TPC-C-NP (Silo' in Cicada-DBx1000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11565544358303091"/>
+          <c:y val="0.12529079285881345"/>
+          <c:w val="0.85481689628334345"/>
+          <c:h val="0.72403972090122393"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>96 threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NP(with insert)'!$B$24:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NP(with insert)'!$C$24:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0;[Red]\-#,##0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5660000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.129E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6356999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2275149999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8364289999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3793490000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8995680000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.850861999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.290744999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C64-B94F-91A6-7D6B54579CCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1185990432"/>
+        <c:axId val="1125668528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1185990432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Warehouse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+                  <a:t> count</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1125668528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1125668528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Throughput (Mtps)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0;[Red]\-#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1185990432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14787613839669272"/>
+          <c:y val="0.19097815002424059"/>
+          <c:w val="0.21478081125610257"/>
+          <c:h val="7.0334854639985275E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+          <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2334,7 +3448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3018,7 +4132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -3574,7 +4688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -4498,6 +5612,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7079,6 +8273,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8004,16 +10230,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106891</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96309</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>475191</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>225425</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8040,6 +10266,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A24316D-057F-2E48-BB43-C7615C271BE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8047,16 +10311,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8078,6 +10342,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682A0B46-7788-8849-8E92-6ADBEF4F90D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8547,7 +10849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7A6503-D1A1-1844-B793-886EA601BAEE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
@@ -8559,9 +10861,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9268C38-2CE7-8042-831F-1C78B83D6351}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -9427,8 +11729,397 @@
         <v>18243139</v>
       </c>
     </row>
+    <row r="21" spans="2:20">
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>96</v>
+      </c>
+      <c r="L23">
+        <v>96</v>
+      </c>
+      <c r="O23">
+        <v>96</v>
+      </c>
+      <c r="R23">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24" si="2">MEDIAN(F24,I24,L24,O24,R24)/1000000</f>
+        <v>7.8383999999999995E-2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24">
+        <v>82636</v>
+      </c>
+      <c r="I24">
+        <v>65425</v>
+      </c>
+      <c r="L24">
+        <v>67438</v>
+      </c>
+      <c r="O24">
+        <v>81073</v>
+      </c>
+      <c r="R24">
+        <v>78384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:C35" si="3">MEDIAN(F25,I25,L25,O25,R25)/1000000</f>
+        <v>0.32294</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25">
+        <v>330251</v>
+      </c>
+      <c r="I25">
+        <v>304479</v>
+      </c>
+      <c r="L25">
+        <v>322940</v>
+      </c>
+      <c r="O25">
+        <v>335336</v>
+      </c>
+      <c r="R25">
+        <v>321868</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>1.207292</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26">
+        <v>1210557</v>
+      </c>
+      <c r="I26">
+        <v>1220042</v>
+      </c>
+      <c r="L26">
+        <v>1207292</v>
+      </c>
+      <c r="O26">
+        <v>1157071</v>
+      </c>
+      <c r="R26">
+        <v>1170075</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0539320000000001</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27">
+        <v>3049543</v>
+      </c>
+      <c r="I27">
+        <v>3066767</v>
+      </c>
+      <c r="L27">
+        <v>3061026</v>
+      </c>
+      <c r="O27">
+        <v>3052838</v>
+      </c>
+      <c r="R27">
+        <v>3053932</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4589809999999996</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28">
+        <v>4451208</v>
+      </c>
+      <c r="I28">
+        <v>4458981</v>
+      </c>
+      <c r="L28">
+        <v>4446624</v>
+      </c>
+      <c r="O28">
+        <v>4459893</v>
+      </c>
+      <c r="R28">
+        <v>4460592</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="3"/>
+        <v>5.68553</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29">
+        <v>5690644</v>
+      </c>
+      <c r="I29">
+        <v>5695561</v>
+      </c>
+      <c r="L29">
+        <v>5671859</v>
+      </c>
+      <c r="O29">
+        <v>5685530</v>
+      </c>
+      <c r="R29">
+        <v>5676371</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="3"/>
+        <v>6.695932</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30">
+        <v>6690750</v>
+      </c>
+      <c r="I30">
+        <v>6695932</v>
+      </c>
+      <c r="L30">
+        <v>6700999</v>
+      </c>
+      <c r="O30">
+        <v>6693579</v>
+      </c>
+      <c r="R30">
+        <v>6700029</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5227560000000002</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31">
+        <v>7420065</v>
+      </c>
+      <c r="I31">
+        <v>7498396</v>
+      </c>
+      <c r="L31">
+        <v>7524088</v>
+      </c>
+      <c r="O31">
+        <v>7565219</v>
+      </c>
+      <c r="R31">
+        <v>7522756</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="3"/>
+        <v>10.530518000000001</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32">
+        <v>10503883</v>
+      </c>
+      <c r="I32">
+        <v>10537112</v>
+      </c>
+      <c r="L32">
+        <v>10527017</v>
+      </c>
+      <c r="O32">
+        <v>10530518</v>
+      </c>
+      <c r="R32">
+        <v>10600068</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="3"/>
+        <v>12.241985</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33">
+        <v>12241985</v>
+      </c>
+      <c r="I33">
+        <v>12270846</v>
+      </c>
+      <c r="L33">
+        <v>12275946</v>
+      </c>
+      <c r="O33">
+        <v>12225132</v>
+      </c>
+      <c r="R33">
+        <v>12232808</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="3"/>
+        <v>16.379773</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34">
+        <v>16306793</v>
+      </c>
+      <c r="I34">
+        <v>16398800</v>
+      </c>
+      <c r="L34">
+        <v>16394940</v>
+      </c>
+      <c r="O34">
+        <v>16362997</v>
+      </c>
+      <c r="R34">
+        <v>16379773</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
+        <v>18.258002000000001</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35">
+        <v>18258002</v>
+      </c>
+      <c r="I35">
+        <v>18247414</v>
+      </c>
+      <c r="L35">
+        <v>18279980</v>
+      </c>
+      <c r="O35">
+        <v>18260206</v>
+      </c>
+      <c r="R35">
+        <v>18243139</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="C4:T4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:H5"/>
@@ -9436,6 +12127,13 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:T5"/>
+    <mergeCell ref="C21:T21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9445,9 +12143,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F6901E-A60E-BA42-907E-FAD8080B8085}">
-  <dimension ref="B2:T18"/>
+  <dimension ref="B2:T35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -10262,7 +12960,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="3"/>
-        <v>12.292484</v>
+        <v>12.290744999999999</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -10289,7 +12987,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12281405</v>
+        <v>12290745</v>
       </c>
       <c r="O18">
         <v>28</v>
@@ -10298,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12296152</v>
+        <v>12290745</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -10310,8 +13008,397 @@
         <v>12307264</v>
       </c>
     </row>
+    <row r="21" spans="2:20">
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>96</v>
+      </c>
+      <c r="L23">
+        <v>96</v>
+      </c>
+      <c r="O23">
+        <v>96</v>
+      </c>
+      <c r="R23">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:C35" si="4">MEDIAN(F24,I24,L24,O24,R24)/1000000</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>49</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>28</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5660000000000001E-3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>6010</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>31020</v>
+      </c>
+      <c r="R27">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="4"/>
+        <v>9.129E-3</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28">
+        <v>34009</v>
+      </c>
+      <c r="I28">
+        <v>8742</v>
+      </c>
+      <c r="L28">
+        <v>615</v>
+      </c>
+      <c r="O28">
+        <v>9129</v>
+      </c>
+      <c r="R28">
+        <v>58583</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6356999999999997E-2</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29">
+        <v>48284</v>
+      </c>
+      <c r="I29">
+        <v>640896</v>
+      </c>
+      <c r="L29">
+        <v>56357</v>
+      </c>
+      <c r="O29">
+        <v>61227</v>
+      </c>
+      <c r="R29">
+        <v>32908</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2275149999999999</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30">
+        <v>2008718</v>
+      </c>
+      <c r="I30">
+        <v>942365</v>
+      </c>
+      <c r="L30">
+        <v>859425</v>
+      </c>
+      <c r="O30">
+        <v>1227515</v>
+      </c>
+      <c r="R30">
+        <v>1691503</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8364289999999999</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31">
+        <v>3836429</v>
+      </c>
+      <c r="I31">
+        <v>4057106</v>
+      </c>
+      <c r="L31">
+        <v>4693932</v>
+      </c>
+      <c r="O31">
+        <v>3711792</v>
+      </c>
+      <c r="R31">
+        <v>3561594</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20">
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="4"/>
+        <v>6.3793490000000004</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32">
+        <v>6539455</v>
+      </c>
+      <c r="I32">
+        <v>6387193</v>
+      </c>
+      <c r="L32">
+        <v>6307205</v>
+      </c>
+      <c r="O32">
+        <v>6377388</v>
+      </c>
+      <c r="R32">
+        <v>6379349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33">
+        <v>56</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="4"/>
+        <v>7.8995680000000004</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33">
+        <v>7937439</v>
+      </c>
+      <c r="I33">
+        <v>7853689</v>
+      </c>
+      <c r="L33">
+        <v>7947487</v>
+      </c>
+      <c r="O33">
+        <v>7899568</v>
+      </c>
+      <c r="R33">
+        <v>7874933</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34">
+        <v>84</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="4"/>
+        <v>10.850861999999999</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34">
+        <v>10869371</v>
+      </c>
+      <c r="I34">
+        <v>10849873</v>
+      </c>
+      <c r="L34">
+        <v>10864617</v>
+      </c>
+      <c r="O34">
+        <v>10850862</v>
+      </c>
+      <c r="R34">
+        <v>10826040</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="4"/>
+        <v>12.290744999999999</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35">
+        <v>12292484</v>
+      </c>
+      <c r="I35">
+        <v>12290745</v>
+      </c>
+      <c r="L35">
+        <v>12290745</v>
+      </c>
+      <c r="O35">
+        <v>12290745</v>
+      </c>
+      <c r="R35">
+        <v>12307264</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="C4:T4"/>
     <mergeCell ref="C5:E5"/>
@@ -10319,6 +13406,13 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="C21:T21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:T22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10330,7 +13424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A8BE04-A1D6-104A-8E4D-4FD0F808C268}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -11216,7 +14310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333C6B27-E3DC-5741-BFF7-F068224E82BA}">
   <dimension ref="B2:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
